--- a/data/trans_camb/P16A08-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A08-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>1.536506433034507</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.879934271187468</v>
+        <v>2.879934271187469</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>5.323911003291289</v>
@@ -664,7 +664,7 @@
         <v>2.223251537258125</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>2.106045891915277</v>
+        <v>2.106045891915276</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.221114657566375</v>
+        <v>-1.415974768706029</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.378153815949184</v>
+        <v>-1.570293601160754</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.03572619384633786</v>
+        <v>-0.2753659320570041</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.286256207932805</v>
+        <v>2.41400421200633</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2131463362232793</v>
+        <v>0.172154693394587</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.8085120828013233</v>
+        <v>-1.05782643809096</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.274286826974471</v>
+        <v>1.355011568939799</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1398394159823603</v>
+        <v>0.05762597169186497</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09007429116927164</v>
+        <v>0.1526435205782308</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.540313782763415</v>
+        <v>4.834487449753022</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.384955385063813</v>
+        <v>4.552784646495524</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.246522890037387</v>
+        <v>7.280851033596944</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8.962442300349466</v>
+        <v>9.580487963112471</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.208477659908848</v>
+        <v>5.995757388961684</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.309291098865908</v>
+        <v>4.01277083388535</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.836661500885313</v>
+        <v>6.11414995001613</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.538777471327021</v>
+        <v>4.357152981353419</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>4.487608762055314</v>
+        <v>4.552086643375844</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4715562211704704</v>
+        <v>-0.5434597499904861</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4522599634360999</v>
+        <v>-0.5042924744303126</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2011690959630362</v>
+        <v>-0.2664171860335249</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4799468315357928</v>
+        <v>0.5956542471676722</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1452273076503063</v>
+        <v>-0.1535507676976266</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4393980243291247</v>
+        <v>-0.5286744033491011</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3028683188864047</v>
+        <v>0.3680551991673824</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05475656196342756</v>
+        <v>-0.001020409515859415</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.07400765164981064</v>
+        <v>-0.063334599407051</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.955644451007671</v>
+        <v>4.786654622054782</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>4.210658264827701</v>
+        <v>4.340007843365771</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>6.262600179700759</v>
+        <v>6.041298938207164</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>16.94562448039784</v>
+        <v>18.32450348825526</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>11.36265409321175</v>
+        <v>12.14506069033678</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>7.571347716282614</v>
+        <v>7.881621539099579</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>5.048069338790654</v>
+        <v>5.673446227157156</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>3.865433934193745</v>
+        <v>3.920606277339104</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>3.737759865072002</v>
+        <v>3.936305509907986</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.395659511923102</v>
+        <v>1.437471562856928</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.304816504503636</v>
+        <v>-1.348898492092243</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.07816247192046188</v>
+        <v>-0.232270818052518</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.336942323672008</v>
+        <v>-2.196981526512687</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.353745769933741</v>
+        <v>-2.475944869499294</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.896455109555472</v>
+        <v>-3.670895448978478</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.4822150927292769</v>
+        <v>0.3018978082228947</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.101714483480627</v>
+        <v>-1.221997751838792</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-1.057689485053686</v>
+        <v>-1.04094068952322</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>7.164424598872941</v>
+        <v>7.095378071542726</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.870379834663046</v>
+        <v>2.625213908389476</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.373364305524514</v>
+        <v>5.277419563084415</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.149726966111619</v>
+        <v>4.268573561156074</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.619175904069329</v>
+        <v>3.759538059430524</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.623881699840743</v>
+        <v>1.667213022711696</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.102595600251885</v>
+        <v>4.698357179443175</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.57023786413186</v>
+        <v>2.355040785540502</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.775292556842484</v>
+        <v>2.671052978534659</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2871879194449741</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>1.081580132332597</v>
+        <v>1.081580132332596</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1559637779148189</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3429290809255975</v>
+        <v>0.2201012142307509</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4321194555209044</v>
+        <v>-0.4841773670519421</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.160848893805829</v>
+        <v>-0.1831903625181069</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2943996406648493</v>
+        <v>-0.2926560107233276</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3119688360996336</v>
+        <v>-0.3226904061986586</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.467504448417963</v>
+        <v>-0.4547919673284253</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06891533005375867</v>
+        <v>0.04701989630341678</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.2198696836324609</v>
+        <v>-0.2409240843970571</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2259784743127332</v>
+        <v>-0.2157077929952911</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>5.229359758439322</v>
+        <v>4.689351714723637</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>2.285327192894895</v>
+        <v>1.917471453770408</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.632094411001912</v>
+        <v>3.868002133013072</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.833306619774166</v>
+        <v>0.8570180976084453</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7613884914858882</v>
+        <v>0.7946207800616996</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3492973056045728</v>
+        <v>0.3533715415336104</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.483656205226118</v>
+        <v>1.402421106174648</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.7579412699447119</v>
+        <v>0.7131091542194726</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.8671400300838453</v>
+        <v>0.7713728863625398</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.4999398901888424</v>
+        <v>-0.6750682409295806</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.04898561777572466</v>
+        <v>0.003513461447926862</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1483355647275934</v>
+        <v>-0.02113364973561798</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.587976927939795</v>
+        <v>1.842283373602608</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.132371555979015</v>
+        <v>-1.920746105950209</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.507782697805951</v>
+        <v>-2.440621009251546</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.292878668705481</v>
+        <v>1.334021858189268</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.3451475345004968</v>
+        <v>-0.3626277267049701</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.6638977325604842</v>
+        <v>-0.8159987379478497</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.345774853740143</v>
+        <v>3.167097061206531</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.40424931314107</v>
+        <v>4.515640159606838</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.034779748713796</v>
+        <v>4.876043954472345</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.22236883458099</v>
+        <v>8.386657749339781</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.768140080368864</v>
+        <v>2.898185612877456</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.753643502757512</v>
+        <v>1.506541962852271</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.020050336454021</v>
+        <v>5.011004465741355</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.952753481941202</v>
+        <v>2.979321473026434</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.459423623964637</v>
+        <v>2.555025620499995</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>2.552451007189336</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2.80857604804665</v>
+        <v>2.808576048046651</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>1.743791309694871</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6631177713211286</v>
+        <v>-0.738682649838811</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6344463229418935</v>
+        <v>-0.5824994133232888</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.6542245817941623</v>
+        <v>-0.7931496729202365</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.2426755324941568</v>
+        <v>0.3496788460304766</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6015136045453874</v>
+        <v>-0.5411662093106102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6478080725139825</v>
+        <v>-0.616364767268465</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.439909852333233</v>
+        <v>0.44676774330131</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1923223274898851</v>
+        <v>-0.2007553105783787</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2891946380559244</v>
+        <v>-0.3575859438914809</v>
       </c>
     </row>
     <row r="21">
@@ -1246,22 +1246,22 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>5.481541397022362</v>
+        <v>5.365462545221053</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.837416383024782</v>
+        <v>2.263862222331869</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.531113289990821</v>
+        <v>1.17617378414457</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>4.912778521063948</v>
+        <v>5.08798893760868</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>2.708319328675765</v>
+        <v>2.842000418642502</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.43475005580181</v>
+        <v>2.291901755589006</v>
       </c>
     </row>
     <row r="22">
@@ -1300,7 +1300,7 @@
         <v>2.352315139211469</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-0.542698330514646</v>
+        <v>-0.5426983305146463</v>
       </c>
     </row>
     <row r="23">
@@ -1311,31 +1311,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-3.001292511580981</v>
+        <v>-3.108038920700725</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.188141453898778</v>
+        <v>-1.02890528273471</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-3.049308664077292</v>
+        <v>-3.148942590549585</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-2.203378948251693</v>
+        <v>-2.083795075902497</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03717221159567169</v>
+        <v>-0.1282969563602198</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-3.073415084081106</v>
+        <v>-3.20145803295204</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.897271566445645</v>
+        <v>-1.995436777870304</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3260672995442987</v>
+        <v>0.2825385076574926</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-2.270943474965558</v>
+        <v>-2.270832922012534</v>
       </c>
     </row>
     <row r="24">
@@ -1346,31 +1346,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.664986305847249</v>
+        <v>1.360206452421311</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.504365132423901</v>
+        <v>4.669525462302283</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.225048811571146</v>
+        <v>2.148236653225866</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.233953392159105</v>
+        <v>3.159500512572735</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>6.386640559431371</v>
+        <v>6.042364461498642</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.901147196662542</v>
+        <v>1.812318963293843</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.682984311793851</v>
+        <v>1.661771597706814</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.841472206559481</v>
+        <v>4.520489583744652</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.354079768475448</v>
+        <v>1.306935400648988</v>
       </c>
     </row>
     <row r="25">
@@ -1405,7 +1405,7 @@
         <v>0.7667710899674167</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.1769003580666934</v>
+        <v>-0.1769003580666935</v>
       </c>
     </row>
     <row r="26">
@@ -1416,31 +1416,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7685504307280817</v>
+        <v>-0.7871386078128482</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.3619034841901589</v>
+        <v>-0.3434676673094495</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.8304344029777116</v>
+        <v>-0.8913915509811016</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4673027433609733</v>
+        <v>-0.4521222739538966</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07855972726801171</v>
+        <v>-0.1246238185049134</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.6422223577895751</v>
+        <v>-0.6525553410333409</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.4913842721139859</v>
+        <v>-0.4634466187130136</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.03099023567908017</v>
+        <v>0.02112726186564785</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.5706211511188735</v>
+        <v>-0.5864972501512505</v>
       </c>
     </row>
     <row r="27">
@@ -1451,31 +1451,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.365998894446703</v>
+        <v>1.053652101883355</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.278648543913649</v>
+        <v>3.512110063361654</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>2.135509499130976</v>
+        <v>1.691776165410141</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.431390579438975</v>
+        <v>1.418167724927231</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.607668256978008</v>
+        <v>2.661664781798395</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9494646462947026</v>
+        <v>0.9567065257778512</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8108969901196996</v>
+        <v>0.7882002779470311</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>2.20924238720103</v>
+        <v>1.997441367583909</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6789061264374723</v>
+        <v>0.6517916819674509</v>
       </c>
     </row>
     <row r="28">
@@ -1505,7 +1505,7 @@
         <v>-3.850160250462518</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>-4.630622611185776</v>
+        <v>-4.630622611185777</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>1.02427194659033</v>
@@ -1525,31 +1525,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.380182345177443</v>
+        <v>-2.706247945672248</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-4.568802867621557</v>
+        <v>-4.283024683362989</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.183231991268873</v>
+        <v>-3.164207919593188</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.074799173248926</v>
+        <v>-4.838288542504688</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-9.441463610660769</v>
+        <v>-9.216793132253878</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-9.917816947534099</v>
+        <v>-9.802576777904118</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.31738348222415</v>
+        <v>-2.324408758679612</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-5.559179248205731</v>
+        <v>-5.643197526328076</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.545480169752992</v>
+        <v>-5.458294137148879</v>
       </c>
     </row>
     <row r="30">
@@ -1560,31 +1560,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>4.38923207560793</v>
+        <v>4.663289722466669</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.574692428544266</v>
+        <v>1.663313087602035</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3.541248455290878</v>
+        <v>3.40264280459755</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.514490497530454</v>
+        <v>6.696271798168723</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.2519852495120074</v>
+        <v>0.3871888989770383</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-0.7599401997964632</v>
+        <v>-0.4965601773293722</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.650666058675459</v>
+        <v>4.609755655478726</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.266312655994798</v>
+        <v>0.3769743249774923</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3712255782212932</v>
+        <v>0.2756947286630264</v>
       </c>
     </row>
     <row r="31">
@@ -1610,7 +1610,7 @@
         <v>-0.4535746863567852</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.5455183841381445</v>
+        <v>-0.5455183841381446</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1726564556861907</v>
@@ -1630,31 +1630,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6399707730233223</v>
+        <v>-0.6014240000389552</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8458136150723747</v>
+        <v>-0.8499811573637267</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6671869164481489</v>
+        <v>-0.6747494558332851</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.4342620702815604</v>
+        <v>-0.4195327180368947</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.7707011913700249</v>
+        <v>-0.7627141488215176</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.7814219701379809</v>
+        <v>-0.7686151369616758</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2948917618209101</v>
+        <v>-0.3084672154103222</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.6946885807797512</v>
+        <v>-0.7173157738799945</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.6928532953951779</v>
+        <v>-0.6771254233665222</v>
       </c>
     </row>
     <row r="33">
@@ -1665,31 +1665,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.595295574584122</v>
+        <v>2.666479708968671</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.260293346588623</v>
+        <v>1.19807973559925</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.68237524243126</v>
+        <v>2.234945532366535</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.183286807566677</v>
+        <v>1.291309210007635</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1617261253114268</v>
+        <v>0.1594307987137194</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.06810960267769192</v>
+        <v>-0.02024774047195487</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.096220112289478</v>
+        <v>1.120984258363332</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.1436065918068395</v>
+        <v>0.1208162054475565</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.1065077025593461</v>
+        <v>0.08461991461014572</v>
       </c>
     </row>
     <row r="34">
@@ -1719,7 +1719,7 @@
         <v>1.56507243312126</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.3251378054922254</v>
+        <v>0.3251378054922226</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>1.813385122189853</v>
@@ -1739,31 +1739,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-0.8745098276258563</v>
+        <v>-0.5943186189485981</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.7493939798492807</v>
+        <v>-0.9270745670964883</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.77480337519158</v>
+        <v>-1.901610838003698</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.88428300796104</v>
+        <v>-1.755082269565425</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.828028203560396</v>
+        <v>-1.649653387555503</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-2.661934743863528</v>
+        <v>-2.955121682308115</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-0.3818026146724564</v>
+        <v>-0.4175895255525841</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.6241515753574061</v>
+        <v>-0.4913204251758915</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.494206151967945</v>
+        <v>-1.547177993570155</v>
       </c>
     </row>
     <row r="36">
@@ -1774,31 +1774,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.077158911448279</v>
+        <v>4.974268084235677</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>5.047582892680962</v>
+        <v>4.746954586965988</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>3.205914481636938</v>
+        <v>3.136852706584076</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.115503025714171</v>
+        <v>5.484864335068798</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>5.445801606571892</v>
+        <v>5.648084616141799</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.723905335466279</v>
+        <v>3.339311007865704</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>4.253841990627604</v>
+        <v>4.099168694898963</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>4.039096437246301</v>
+        <v>4.139051866468655</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.39581086527707</v>
+        <v>2.714940943296726</v>
       </c>
     </row>
     <row r="37">
@@ -1824,7 +1824,7 @@
         <v>0.4549973867031333</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09452396495305988</v>
+        <v>0.09452396495305908</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.6978389628526335</v>
@@ -1844,31 +1844,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.4546920630891032</v>
+        <v>-0.3816063913275317</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4586526265301604</v>
+        <v>-0.4461454374007873</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.7079714485445097</v>
+        <v>-0.7232548850911326</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.4273694799098682</v>
+        <v>-0.383293477588563</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4343537482709371</v>
+        <v>-0.3939021888610479</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5506996669474471</v>
+        <v>-0.5681084982317376</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1627344171809916</v>
+        <v>-0.1819514315693353</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2455994195078401</v>
+        <v>-0.1813489047521401</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.4385451766425073</v>
+        <v>-0.4639647152993613</v>
       </c>
     </row>
     <row r="39">
@@ -1879,31 +1879,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>7.926172286561342</v>
+        <v>10.22822563640277</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>6.710800521749036</v>
+        <v>9.505917430304288</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>6.25266574541966</v>
+        <v>5.387144366474742</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.867281340164172</v>
+        <v>3.069944223615154</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.823280936436714</v>
+        <v>3.606801826607074</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.978846055286865</v>
+        <v>1.992239799039739</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>2.605997537087148</v>
+        <v>2.482044669026039</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>2.416331767256837</v>
+        <v>2.680817046603322</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.547075031188212</v>
+        <v>1.714255168959882</v>
       </c>
     </row>
     <row r="40">
@@ -1933,7 +1933,7 @@
         <v>2.859305059986204</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>4.455059174105751</v>
+        <v>4.45505917410575</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>0.6211309544673173</v>
@@ -1953,31 +1953,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.604681013725275</v>
+        <v>-1.401767065520433</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.107024041196029</v>
+        <v>-0.9765917216021303</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.1306867546536415</v>
+        <v>0.02260129827265242</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.9716280630926021</v>
+        <v>-0.973854097700028</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.5467847343509944</v>
+        <v>0.735851756955282</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.155092292598404</v>
+        <v>2.08767380202849</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.5533640111743844</v>
+        <v>-0.521995940637957</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>0.4320474660744533</v>
+        <v>0.4143478148758041</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.585956448368278</v>
+        <v>1.563001561286723</v>
       </c>
     </row>
     <row r="42">
@@ -1988,31 +1988,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.335402477443648</v>
+        <v>1.382232537444739</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.222105595857291</v>
+        <v>2.455888853471543</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3.264155940959458</v>
+        <v>3.335109528037949</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.325523360896655</v>
+        <v>3.428107310771387</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>5.160419269490832</v>
+        <v>5.247823241268913</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.848520469643341</v>
+        <v>6.637219442694104</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1.893064847019393</v>
+        <v>2.185387987363306</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.190241309530994</v>
+        <v>3.374397540247839</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>4.634107104469652</v>
+        <v>4.601027496438731</v>
       </c>
     </row>
     <row r="43">
@@ -2058,31 +2058,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.6684959790755253</v>
+        <v>-0.62656344307181</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5224559238292771</v>
+        <v>-0.4513256181290707</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1671558811329614</v>
+        <v>-0.1254597446773064</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2780743411658929</v>
+        <v>-0.2619931485207675</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.09378898847902958</v>
+        <v>0.1248534530212534</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.4798677577618443</v>
+        <v>0.4686825537689801</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.1984942841309856</v>
+        <v>-0.2088776099732547</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1061115828058741</v>
+        <v>0.1021465763637705</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.4850495307456441</v>
+        <v>0.5325237457352504</v>
       </c>
     </row>
     <row r="45">
@@ -2093,31 +2093,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>1.507329281203699</v>
+        <v>1.832058777101102</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>2.214708867255762</v>
+        <v>2.856723823101358</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.957115988320632</v>
+        <v>3.861963798815291</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.86288600388721</v>
+        <v>1.839592781440113</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>2.671782472206504</v>
+        <v>2.73885056953834</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>3.503969355766541</v>
+        <v>3.293932851742486</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.130655078329305</v>
+        <v>1.372051714906008</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.847712657584641</v>
+        <v>2.0980294644235</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>2.749424260400082</v>
+        <v>2.908008107316511</v>
       </c>
     </row>
     <row r="46">
@@ -2167,31 +2167,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.169755726631412</v>
+        <v>-2.145755472361078</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-2.539692839366567</v>
+        <v>-2.560321007897588</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-2.700183668227145</v>
+        <v>-2.329031059436973</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.541910436921957</v>
+        <v>-1.412643959223894</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.7336213712538447</v>
+        <v>-0.7259915745518734</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.2919003087768757</v>
+        <v>0.3201774549810631</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-1.14168491779376</v>
+        <v>-1.23259072978184</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.9656675374871672</v>
+        <v>-1.032770610719991</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.4955389994533674</v>
+        <v>-0.3163906105895098</v>
       </c>
     </row>
     <row r="48">
@@ -2202,31 +2202,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.10988104666463</v>
+        <v>2.07143692253196</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.191421781844565</v>
+        <v>1.302235109889686</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.120399181318652</v>
+        <v>1.277378216383815</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.319449013819126</v>
+        <v>2.492941644260936</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>3.433933777066781</v>
+        <v>3.473936132783987</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>4.372626253807963</v>
+        <v>4.330448390401134</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>1.701372363737464</v>
+        <v>1.604298646498186</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.86088767240974</v>
+        <v>1.943717556910218</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>2.270947372087843</v>
+        <v>2.223461038704936</v>
       </c>
     </row>
     <row r="49">
@@ -2272,31 +2272,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4447478825363583</v>
+        <v>-0.4347699817633744</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.4952817961810255</v>
+        <v>-0.5196504712669696</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.5271977256524699</v>
+        <v>-0.4899656438442802</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3319372175819206</v>
+        <v>-0.3095885459339316</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1789892457935615</v>
+        <v>-0.1773831325438137</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03244151799762996</v>
+        <v>0.05108930354282229</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.2571659825259728</v>
+        <v>-0.2757958974473482</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2085092352459715</v>
+        <v>-0.2332161453606253</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.1180857718966357</v>
+        <v>-0.07855227151254614</v>
       </c>
     </row>
     <row r="51">
@@ -2307,31 +2307,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.7800121742132299</v>
+        <v>0.7197273071072745</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.4546043873305501</v>
+        <v>0.5506336263138581</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.4039812851663013</v>
+        <v>0.4437941955919934</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.8342082328797498</v>
+        <v>0.8996375411565023</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>1.225423447693851</v>
+        <v>1.172002960101695</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.585023430388815</v>
+        <v>1.511490877202596</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.5596860174653494</v>
+        <v>0.5204292360884738</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.5953879593309482</v>
+        <v>0.659869085096783</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.7609394857423351</v>
+        <v>0.7448740599335917</v>
       </c>
     </row>
     <row r="52">
@@ -2361,7 +2361,7 @@
         <v>1.458951067232117</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>1.040170439171232</v>
+        <v>1.040170439171231</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>1.314349975998779</v>
@@ -2370,7 +2370,7 @@
         <v>1.084038531993588</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>1.02867322268313</v>
+        <v>1.028673222683128</v>
       </c>
     </row>
     <row r="53">
@@ -2381,31 +2381,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>0.1403879236943159</v>
+        <v>0.2376024625719523</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.2186943623373472</v>
+        <v>-0.0843783868037607</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>0.1875799238595241</v>
+        <v>0.118571843097571</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>0.5341045535772824</v>
+        <v>0.5450875976747042</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>0.3722442939597923</v>
+        <v>0.3574204229552996</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>0.1163182888002122</v>
+        <v>0.09879561596964768</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.6450342824310987</v>
+        <v>0.6462170749775511</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.3944895976862208</v>
+        <v>0.3926807447935868</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.41505280310138</v>
+        <v>0.3487287603220869</v>
       </c>
     </row>
     <row r="54">
@@ -2416,31 +2416,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.84877008134343</v>
+        <v>1.885204181752329</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.557569078981915</v>
+        <v>1.533871664697133</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.950051038599952</v>
+        <v>1.896694438440768</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>2.63256573292135</v>
+        <v>2.669535223020862</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.450175911162669</v>
+        <v>2.500526361557207</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.034920182548018</v>
+        <v>2.07589312162768</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.992593419897673</v>
+        <v>2.00442402908772</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>1.804244698115951</v>
+        <v>1.748247658813418</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>1.650245146319572</v>
+        <v>1.64651709450418</v>
       </c>
     </row>
     <row r="55">
@@ -2466,7 +2466,7 @@
         <v>0.3727103595528757</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2657267314079854</v>
+        <v>0.2657267314079853</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.4155381385404722</v>
@@ -2475,7 +2475,7 @@
         <v>0.3427240551729427</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.3252200433110316</v>
+        <v>0.3252200433110312</v>
       </c>
     </row>
     <row r="56">
@@ -2486,31 +2486,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.0329047356484761</v>
+        <v>0.07895440623826105</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.08113437869481292</v>
+        <v>-0.03531990606419048</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.06781631221945468</v>
+        <v>0.03901802543959845</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1242182192715751</v>
+        <v>0.1194950930201816</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.0884271217674957</v>
+        <v>0.07748732269141169</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.02273223254854245</v>
+        <v>0.02255032937440867</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1802110805669028</v>
+        <v>0.1760550819380063</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.1126489038113126</v>
+        <v>0.1044831477075338</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.1209653891613039</v>
+        <v>0.09960460774754572</v>
       </c>
     </row>
     <row r="57">
@@ -2521,31 +2521,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.9000488115342049</v>
+        <v>0.9330157807940362</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.7595518196971653</v>
+        <v>0.7735909006309354</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.9830591730440662</v>
+        <v>0.9052495955117041</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.7613486408920279</v>
+        <v>0.7742876149596699</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.7220055121404992</v>
+        <v>0.7408822512954366</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.5866196450150273</v>
+        <v>0.6204666424302541</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.7045209284200571</v>
+        <v>0.6801838633463699</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.6288070488915284</v>
+        <v>0.6108411532069203</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.5622124867555109</v>
+        <v>0.5919247340234938</v>
       </c>
     </row>
     <row r="58">
